--- a/Timing_Data/Final Project 4F03 MPI times.xlsx
+++ b/Timing_Data/Final Project 4F03 MPI times.xlsx
@@ -38,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -77,6 +77,21 @@
       <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -178,7 +193,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -190,7 +205,7 @@
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -736,11 +751,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="76319"/>
-        <c:axId val="67671343"/>
+        <c:axId val="31534707"/>
+        <c:axId val="7766575"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76319"/>
+        <c:axId val="31534707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +782,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Processes</a:t>
+                  <a:t>Number of Processors</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -800,12 +815,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67671343"/>
+        <c:crossAx val="7766575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67671343"/>
+        <c:axId val="7766575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76319"/>
+        <c:crossAx val="31534707"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1460,11 +1475,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61664847"/>
-        <c:axId val="97000532"/>
+        <c:axId val="39829716"/>
+        <c:axId val="77063726"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61664847"/>
+        <c:axId val="39829716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +1506,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Processes</a:t>
+                  <a:t>Number of Processors</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1524,12 +1539,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97000532"/>
+        <c:crossAx val="77063726"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97000532"/>
+        <c:axId val="77063726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1614,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61664847"/>
+        <c:crossAx val="39829716"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2184,11 +2199,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74604525"/>
-        <c:axId val="92029375"/>
+        <c:axId val="12551140"/>
+        <c:axId val="77776822"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74604525"/>
+        <c:axId val="12551140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2230,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Processes</a:t>
+                  <a:t>Number of Processors</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2248,12 +2263,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92029375"/>
+        <c:crossAx val="77776822"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92029375"/>
+        <c:axId val="77776822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2338,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74604525"/>
+        <c:crossAx val="12551140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2375,6 +2390,264 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Weakly Scalable Plot for MPI Implementation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2,Sheet1!$A$11,Sheet1!$A$20,Sheet1!$A$28,Sheet1!$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2,Sheet1!$E$11,Sheet1!$E$20,Sheet1!$E$28,Sheet1!$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.484162895927602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.253110419906687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0981104651162791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0704617834394904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="686065"/>
+        <c:axId val="28097490"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="686065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28097490"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28097490"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686065"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2386,9 +2659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2397,7 +2670,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5467320" y="266400"/>
-        <a:ext cx="5997600" cy="2920680"/>
+        <a:ext cx="5997240" cy="2920320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2416,9 +2689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2427,7 +2700,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5727600" y="3644640"/>
-        <a:ext cx="5737320" cy="2742840"/>
+        <a:ext cx="5736960" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2446,9 +2719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>615600</xdr:colOff>
+      <xdr:colOff>615240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2457,11 +2730,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11662200" y="1803240"/>
-        <a:ext cx="5270040" cy="3022200"/>
+        <a:ext cx="5269680" cy="3021840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>951480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>588600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12169080" y="5225040"/>
+        <a:ext cx="5756040" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2478,7 +2781,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
+      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Timing_Data/Final Project 4F03 MPI times.xlsx
+++ b/Timing_Data/Final Project 4F03 MPI times.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Pure MPI" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Comparisons" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t xml:space="preserve">Proccesors </t>
   </si>
@@ -29,6 +30,18 @@
   </si>
   <si>
     <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speedup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure MPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI with OpenMP</t>
   </si>
 </sst>
 </file>
@@ -159,7 +172,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -218,7 +231,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -301,7 +314,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>'Pure MPI'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -328,7 +341,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'Pure MPI'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -400,7 +413,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$A$15</c:f>
+              <c:f>'Pure MPI'!$A$10:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -427,7 +440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$15</c:f>
+              <c:f>'Pure MPI'!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -499,7 +512,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:f>'Pure MPI'!$A$18:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -526,7 +539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$23</c:f>
+              <c:f>'Pure MPI'!$C$18:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -598,7 +611,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$25:$A$30</c:f>
+              <c:f>'Pure MPI'!$A$25:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -625,7 +638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$30</c:f>
+              <c:f>'Pure MPI'!$C$25:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -697,7 +710,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$A$37</c:f>
+              <c:f>'Pure MPI'!$A$32:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -724,7 +737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$C$37</c:f>
+              <c:f>'Pure MPI'!$C$32:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -751,11 +764,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31534707"/>
-        <c:axId val="7766575"/>
+        <c:axId val="68836120"/>
+        <c:axId val="61334270"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31534707"/>
+        <c:axId val="68836120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,12 +828,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7766575"/>
+        <c:crossAx val="61334270"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7766575"/>
+        <c:axId val="61334270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31534707"/>
+        <c:crossAx val="68836120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -942,7 +955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart129.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1025,7 +1038,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>'Pure MPI'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1052,7 +1065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>'Pure MPI'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1124,7 +1137,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$A$15</c:f>
+              <c:f>'Pure MPI'!$A$10:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1151,7 +1164,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$15</c:f>
+              <c:f>'Pure MPI'!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1162,7 +1175,7 @@
                   <c:v>0.968325791855204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.934497816593886</c:v>
+                  <c:v>0.934497816593887</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.955357142857143</c:v>
@@ -1223,7 +1236,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:f>'Pure MPI'!$A$18:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1250,7 +1263,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$23</c:f>
+              <c:f>'Pure MPI'!$D$18:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1322,7 +1335,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$25:$A$30</c:f>
+              <c:f>'Pure MPI'!$A$25:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1349,7 +1362,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$30</c:f>
+              <c:f>'Pure MPI'!$D$25:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1421,7 +1434,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$A$37</c:f>
+              <c:f>'Pure MPI'!$A$32:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1448,7 +1461,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$D$37</c:f>
+              <c:f>'Pure MPI'!$D$32:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1475,11 +1488,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39829716"/>
-        <c:axId val="77063726"/>
+        <c:axId val="42259330"/>
+        <c:axId val="411722"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39829716"/>
+        <c:axId val="42259330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +1552,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77063726"/>
+        <c:crossAx val="411722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77063726"/>
+        <c:axId val="411722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39829716"/>
+        <c:crossAx val="42259330"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1666,7 +1679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart130.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1749,7 +1762,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>'Pure MPI'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1776,7 +1789,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>'Pure MPI'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1848,7 +1861,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$A$15</c:f>
+              <c:f>'Pure MPI'!$A$10:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1875,7 +1888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$15</c:f>
+              <c:f>'Pure MPI'!$E$10:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1947,7 +1960,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:f>'Pure MPI'!$A$18:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1974,7 +1987,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$E$30</c:f>
+              <c:f>'Pure MPI'!$E$25:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2046,7 +2059,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$25:$A$30</c:f>
+              <c:f>'Pure MPI'!$A$25:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2073,7 +2086,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$E$30</c:f>
+              <c:f>'Pure MPI'!$E$25:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2145,7 +2158,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$A$37</c:f>
+              <c:f>'Pure MPI'!$A$32:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2172,7 +2185,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$32:$E$37</c:f>
+              <c:f>'Pure MPI'!$E$32:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2199,11 +2212,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12551140"/>
-        <c:axId val="77776822"/>
+        <c:axId val="71656549"/>
+        <c:axId val="19666139"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12551140"/>
+        <c:axId val="71656549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,12 +2276,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77776822"/>
+        <c:crossAx val="19666139"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77776822"/>
+        <c:axId val="19666139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2351,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12551140"/>
+        <c:crossAx val="71656549"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2390,7 +2403,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2446,6 +2459,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2455,7 +2469,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2,Sheet1!$A$11,Sheet1!$A$20,Sheet1!$A$28,Sheet1!$A$36</c:f>
+              <c:f>'Pure MPI'!$A$2,'Pure MPI'!$A$11,'Pure MPI'!$A$20,'Pure MPI'!$A$28,'Pure MPI'!$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2479,7 +2493,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2,Sheet1!$E$11,Sheet1!$E$20,Sheet1!$E$28,Sheet1!$E$36</c:f>
+              <c:f>'Pure MPI'!$E$2,'Pure MPI'!$E$11,'Pure MPI'!$E$20,'Pure MPI'!$E$28,'Pure MPI'!$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2503,11 +2517,384 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="686065"/>
-        <c:axId val="28097490"/>
+        <c:axId val="17435038"/>
+        <c:axId val="39369833"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="686065"/>
+        <c:axId val="17435038"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39369833"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39369833"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17435038"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Timing Plot for 2000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="27475988"/>
+        <c:axId val="69156460"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="27475988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,12 +2944,800 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28097490"/>
+        <c:crossAx val="69156460"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28097490"/>
+        <c:axId val="69156460"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27475988"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup Plot for 2000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.909967845659164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99764982373678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.824271844660194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.701652892561983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87693898655636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06801007556675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.961451247165533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.785185185185185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.580821917808219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="80016224"/>
+        <c:axId val="45448233"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80016224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45448233"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45448233"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80016224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart134.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Efficiency Plot for 2000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.454983922829582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249412455934195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.103033980582524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.043853305785124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0176875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43846949327818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.267002518891688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.120181405895692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0490740740740741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0181506849315068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="92057783"/>
+        <c:axId val="74236713"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92057783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74236713"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="74236713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +3796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686065"/>
+        <c:crossAx val="92057783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2634,6 +3809,4755 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart135.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Timing Plot for 4000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$10:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$I$10:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="3091437"/>
+        <c:axId val="21915329"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="3091437"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21915329"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="21915329"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3091437"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart136.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup Plot for 4000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.968325791855204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.934497816593887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.955357142857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.804511278195489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.545918367346939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$10:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$J$10:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.959390862944163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.18867924528302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.959390862944163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.653979238754325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="99344648"/>
+        <c:axId val="49742985"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99344648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49742985"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49742985"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99344648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart137.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Efficiency Plot for 4000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.484162895927602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.233624454148472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.119419642857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.050281954887218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0170599489795918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$10:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$K$10:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.479695431472081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.321428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.148584905660377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0599619289340102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0204368512110727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="3657904"/>
+        <c:axId val="57859415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="3657904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57859415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57859415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3657904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart138.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Timing Plot for 8000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$C$18:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$18:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$I$18:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="50793637"/>
+        <c:axId val="92794934"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50793637"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92794934"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92794934"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50793637"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart139.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup Plot for 8000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.942112879884226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01244167962675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02197802197802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.789090909090909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.639489194499018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$18:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$J$18:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.969135802469136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.53545232273839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.48463356973995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06260575296108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.717714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="80905260"/>
+        <c:axId val="54081832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80905260"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54081832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54081832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80905260"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart140.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Efficiency Plot for 8000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$E$18:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471056439942113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.253110419906687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.127747252747253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0493181818181818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0199840373280943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$18:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$K$18:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.484567901234568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.383863080684597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185579196217494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0664128595600677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0224285714285714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="78435231"/>
+        <c:axId val="60174387"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78435231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60174387"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60174387"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78435231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart141.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Timing Plot for 16000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$25:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$25:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$I$25:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="51206067"/>
+        <c:axId val="66477634"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51206067"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66477634"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66477634"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51206067"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart142.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup Plot for 16000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$25:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$D$25:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.665024630541872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.849056603773585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.784883720930233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.522243713733075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$25:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$J$25:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.982683982683983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.15909090909091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.37278106508876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.83122362869198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2531017369727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="32930849"/>
+        <c:axId val="39941175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="32930849"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39941175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39941175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32930849"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart143.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Efficiency Plot for 16000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$25:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$E$25:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.332512315270936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.212264150943396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0981104651162791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0326402321083172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$25:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$K$25:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.491341991341991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.28977272727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.671597633136095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.239451476793249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.070409429280397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="23240854"/>
+        <c:axId val="19349415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="23240854"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19349415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="19349415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23240854"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart144.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Timing Plot for 32000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$C$32:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$32:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$I$32:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>270.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="70990947"/>
+        <c:axId val="43260271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70990947"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43260271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43260271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70990947"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart145.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup Plot for 32000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$D$32:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3828125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52586206896552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.12025316455696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12738853503185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.39370078740157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$32:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$J$32:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00222386953299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.18770226537217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.01941747572815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.45689655172414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.40980187695516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="44760410"/>
+        <c:axId val="99469285"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44760410"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99469285"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99469285"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44760410"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart146.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Efficiency Plot for 32000 Particles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$E$32:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69140625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.381465517241379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14003164556962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0704617834394904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0435531496062992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI with OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparisons!$G$32:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparisons!$K$32:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.501111934766494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.546925566343042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.252427184466019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0910560344827586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0440563086548488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="97488855"/>
+        <c:axId val="70501473"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="97488855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70501473"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70501473"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97488855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
   </c:chart>
@@ -2659,9 +8583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2670,7 +8594,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5467320" y="266400"/>
-        <a:ext cx="5997240" cy="2920320"/>
+        <a:ext cx="5996520" cy="2919600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2689,9 +8613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2700,7 +8624,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5727600" y="3644640"/>
-        <a:ext cx="5736960" cy="2742480"/>
+        <a:ext cx="5736240" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2719,9 +8643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>615240</xdr:colOff>
+      <xdr:colOff>614520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2730,7 +8654,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11662200" y="1803240"/>
-        <a:ext cx="5269680" cy="3021840"/>
+        <a:ext cx="5268960" cy="3021120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2749,9 +8673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
+      <xdr:colOff>587880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2760,11 +8684,466 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12169080" y="5225040"/>
-        <a:ext cx="5756040" cy="3241440"/>
+        <a:ext cx="5755320" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>786600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9727200" y="266040"/>
+        <a:ext cx="5754960" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>760320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9700920" y="3745800"/>
+        <a:ext cx="5754960" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25920</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9779400" y="7174800"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>393120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="15770520" y="278640"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>484920</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="15862320" y="3732840"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>655560</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>721080</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16098480" y="7238520"/>
+        <a:ext cx="5755320" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65520</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9819000" y="10667520"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118080</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183960</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9871560" y="14160240"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157320</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>223200</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9910800" y="17716320"/>
+        <a:ext cx="5755320" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>629640</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>694800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>106920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16072560" y="10744200"/>
+        <a:ext cx="5754960" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16033320" y="14286960"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>721440</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16098840" y="17894160"/>
+        <a:ext cx="5755320" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118080</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183960</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9871560" y="21196080"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183600</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>249480</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9937080" y="24637680"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222840</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>288720</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9976320" y="28117440"/>
+        <a:ext cx="5755320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2780,8 +9159,8 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2799,6 +9178,12 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2964,7 +9349,7 @@
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">C10/C12</f>
-        <v>0.934497816593886</v>
+        <v>0.934497816593887</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12/A12</f>
@@ -3380,4 +9765,1150 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB26" activeCellId="0" sqref="AB26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">C2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">D2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">I2/I2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">J2/G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">C2/C3</f>
+        <v>0.909967845659164</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">D3/A3</f>
+        <v>0.454983922829582</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">I2/I3</f>
+        <v>0.87693898655636</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">J3/G3</f>
+        <v>0.43846949327818</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">C2/C4</f>
+        <v>0.99764982373678</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">D4/A4</f>
+        <v>0.249412455934195</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">I2/I4</f>
+        <v>1.06801007556675</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">J4/G4</f>
+        <v>0.267002518891688</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">C2/C5</f>
+        <v>0.824271844660194</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">D5/A5</f>
+        <v>0.103033980582524</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">I2/I5</f>
+        <v>0.961451247165533</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5/G5</f>
+        <v>0.120181405895692</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">C2/C6</f>
+        <v>0.701652892561983</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">D6/A6</f>
+        <v>0.043853305785124</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">I2/I6</f>
+        <v>0.785185185185185</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">J6/G6</f>
+        <v>0.0490740740740741</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">C2/C7</f>
+        <v>0.566</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">D7/A7</f>
+        <v>0.0176875</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">I2/I7</f>
+        <v>0.580821917808219</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">J7/G7</f>
+        <v>0.0181506849315068</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">C10/C10</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">D10/A10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">I10/I10</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">J10/G10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">C10/C11</f>
+        <v>0.968325791855204</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">D11/A11</f>
+        <v>0.484162895927602</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">I10/I11</f>
+        <v>0.959390862944163</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">J11/G11</f>
+        <v>0.479695431472081</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">C10/C12</f>
+        <v>0.934497816593887</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">D12/A12</f>
+        <v>0.233624454148472</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">I10/I12</f>
+        <v>1.28571428571429</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">J12/G12</f>
+        <v>0.321428571428571</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">C10/C13</f>
+        <v>0.955357142857143</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">D13/A13</f>
+        <v>0.119419642857143</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">I10/I13</f>
+        <v>1.18867924528302</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">J13/G13</f>
+        <v>0.148584905660377</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">C10/C14</f>
+        <v>0.804511278195489</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">D14/A14</f>
+        <v>0.050281954887218</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">I10/I14</f>
+        <v>0.959390862944163</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">J14/G14</f>
+        <v>0.0599619289340102</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">C10/C15</f>
+        <v>0.545918367346939</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">D15/A15</f>
+        <v>0.0170599489795918</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">I10/I15</f>
+        <v>0.653979238754325</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">J15/G15</f>
+        <v>0.0204368512110727</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">C18/C18</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">D18/A18</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">I18/I18</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">J18/G18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">C18/C19</f>
+        <v>0.942112879884226</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">D19/A19</f>
+        <v>0.471056439942113</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">I18/I19</f>
+        <v>0.969135802469136</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">J19/G19</f>
+        <v>0.484567901234568</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">C18/C20</f>
+        <v>1.01244167962675</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">D20/A20</f>
+        <v>0.253110419906687</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">I18/I20</f>
+        <v>1.53545232273839</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">J20/G20</f>
+        <v>0.383863080684597</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">C18/C21</f>
+        <v>1.02197802197802</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">D21/A21</f>
+        <v>0.127747252747253</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">I18/I21</f>
+        <v>1.48463356973995</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">J21/G21</f>
+        <v>0.185579196217494</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">C18/C22</f>
+        <v>0.789090909090909</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">D22/A22</f>
+        <v>0.0493181818181818</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">I18/I22</f>
+        <v>1.06260575296108</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">J22/G22</f>
+        <v>0.0664128595600677</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">C18/C23</f>
+        <v>0.639489194499018</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">D23/A23</f>
+        <v>0.0199840373280943</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">I18/I23</f>
+        <v>0.717714285714286</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">J23/G23</f>
+        <v>0.0224285714285714</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">C25/C25</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">D25/A25</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">I25/I25</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">J25/G25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">C25/C26</f>
+        <v>0.665024630541872</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">D26/A26</f>
+        <v>0.332512315270936</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>92.4</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">I25/I26</f>
+        <v>0.982683982683983</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">J26/G26</f>
+        <v>0.491341991341991</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">C25/C27</f>
+        <v>0.849056603773585</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">D27/A27</f>
+        <v>0.212264150943396</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">I25/I27</f>
+        <v>5.15909090909091</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">J27/G27</f>
+        <v>1.28977272727273</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">C25/C28</f>
+        <v>0.784883720930233</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">D28/A28</f>
+        <v>0.0981104651162791</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">I25/I28</f>
+        <v>5.37278106508876</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">J28/G28</f>
+        <v>0.671597633136095</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">C25/C29</f>
+        <v>0.522243713733075</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">D29/A29</f>
+        <v>0.0326402321083172</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">I25/I29</f>
+        <v>3.83122362869198</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">J29/G29</f>
+        <v>0.239451476793249</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">C25/C30</f>
+        <v>0.432</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">D30/A30</f>
+        <v>0.0135</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">I25/I30</f>
+        <v>2.2531017369727</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">J30/G30</f>
+        <v>0.070409429280397</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">C32/C32</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">D32/A32</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">I32/I32</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">J32/G32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">C32/C33</f>
+        <v>1.3828125</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">D33/A33</f>
+        <v>0.69140625</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">I32/I33</f>
+        <v>1.00222386953299</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">J33/G33</f>
+        <v>0.501111934766494</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">C32/C34</f>
+        <v>1.52586206896552</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">D34/A34</f>
+        <v>0.381465517241379</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">I32/I34</f>
+        <v>2.18770226537217</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">J34/G34</f>
+        <v>0.546925566343042</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">C32/C35</f>
+        <v>1.12025316455696</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">D35/A35</f>
+        <v>0.14003164556962</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">I32/I35</f>
+        <v>2.01941747572815</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">J35/G35</f>
+        <v>0.252427184466019</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">C32/C36</f>
+        <v>1.12738853503185</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">D36/A36</f>
+        <v>0.0704617834394904</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">I32/I36</f>
+        <v>1.45689655172414</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">J36/G36</f>
+        <v>0.0910560344827586</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">C32/C37</f>
+        <v>1.39370078740157</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">D37/A37</f>
+        <v>0.0435531496062992</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">I32/I37</f>
+        <v>1.40980187695516</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">J37/G37</f>
+        <v>0.0440563086548488</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>